--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H2">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I2">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J2">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.3442741098935</v>
+        <v>4.344454</v>
       </c>
       <c r="N2">
-        <v>4.3442741098935</v>
+        <v>8.688908</v>
       </c>
       <c r="O2">
-        <v>0.07459182210593297</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P2">
-        <v>0.07459182210593297</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q2">
-        <v>14.58662238242218</v>
+        <v>19.555608245574</v>
       </c>
       <c r="R2">
-        <v>14.58662238242218</v>
+        <v>78.22243298229601</v>
       </c>
       <c r="S2">
-        <v>0.01889124478849917</v>
+        <v>0.01933038915752505</v>
       </c>
       <c r="T2">
-        <v>0.01889124478849917</v>
+        <v>0.01224195843711336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H3">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I3">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J3">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.9104196133373</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N3">
-        <v>22.9104196133373</v>
+        <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3933752569338282</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P3">
-        <v>0.3933752569338282</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q3">
-        <v>76.92554177498312</v>
+        <v>108.863770567411</v>
       </c>
       <c r="R3">
-        <v>76.92554177498312</v>
+        <v>653.1826234044661</v>
       </c>
       <c r="S3">
-        <v>0.09962685000403845</v>
+        <v>0.1076100023991766</v>
       </c>
       <c r="T3">
-        <v>0.09962685000403845</v>
+        <v>0.1022243137000344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H4">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I4">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J4">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.743134322622252</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N4">
-        <v>0.743134322622252</v>
+        <v>0.430342</v>
       </c>
       <c r="O4">
-        <v>0.01275972505225066</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P4">
-        <v>0.01275972505225066</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q4">
-        <v>2.495197003987768</v>
+        <v>0.6456967560340001</v>
       </c>
       <c r="R4">
-        <v>2.495197003987768</v>
+        <v>3.874180536204</v>
       </c>
       <c r="S4">
-        <v>0.003231548480658979</v>
+        <v>0.0006382603606673125</v>
       </c>
       <c r="T4">
-        <v>0.003231548480658979</v>
+        <v>0.0006063165679443536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H5">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I5">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J5">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.30518011884588</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N5">
-        <v>4.30518011884588</v>
+        <v>3.215092</v>
       </c>
       <c r="O5">
-        <v>0.07392057255954868</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P5">
-        <v>0.07392057255954868</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q5">
-        <v>14.45535780969765</v>
+        <v>4.824010844284001</v>
       </c>
       <c r="R5">
-        <v>14.45535780969765</v>
+        <v>28.94406506570401</v>
       </c>
       <c r="S5">
-        <v>0.01872124304920788</v>
+        <v>0.004768453414955063</v>
       </c>
       <c r="T5">
-        <v>0.01872124304920788</v>
+        <v>0.004529800826006636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H6">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I6">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J6">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.9376137592956</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N6">
-        <v>25.9376137592956</v>
+        <v>14.125759</v>
       </c>
       <c r="O6">
-        <v>0.4453526233484394</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P6">
-        <v>0.4453526233484394</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q6">
-        <v>87.0898492676462</v>
+        <v>21.194670199093</v>
       </c>
       <c r="R6">
-        <v>87.0898492676462</v>
+        <v>127.168021194558</v>
       </c>
       <c r="S6">
-        <v>0.1127907213866874</v>
+        <v>0.02095057427357668</v>
       </c>
       <c r="T6">
-        <v>0.1127907213866874</v>
+        <v>0.01990203539624082</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.88778707649194</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H7">
-        <v>1.88778707649194</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I7">
-        <v>0.1423917567179602</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J7">
-        <v>0.1423917567179602</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.3442741098935</v>
+        <v>26.1699</v>
       </c>
       <c r="N7">
-        <v>4.3442741098935</v>
+        <v>52.3398</v>
       </c>
       <c r="O7">
-        <v>0.07459182210593297</v>
+        <v>0.4316816313205064</v>
       </c>
       <c r="P7">
-        <v>0.07459182210593297</v>
+        <v>0.3458079845003432</v>
       </c>
       <c r="Q7">
-        <v>8.201064521395475</v>
+        <v>117.7980736419</v>
       </c>
       <c r="R7">
-        <v>8.201064521395475</v>
+        <v>471.1922945676</v>
       </c>
       <c r="S7">
-        <v>0.01062126058645738</v>
+        <v>0.1164414104081928</v>
       </c>
       <c r="T7">
-        <v>0.01062126058645738</v>
+        <v>0.07374248365926142</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H8">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J8">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.9104196133373</v>
+        <v>4.344454</v>
       </c>
       <c r="N8">
-        <v>22.9104196133373</v>
+        <v>8.688908</v>
       </c>
       <c r="O8">
-        <v>0.3933752569338282</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P8">
-        <v>0.3933752569338282</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q8">
-        <v>43.24999406306562</v>
+        <v>9.069942682524001</v>
       </c>
       <c r="R8">
-        <v>43.24999406306562</v>
+        <v>54.419656095144</v>
       </c>
       <c r="S8">
-        <v>0.05601339388418676</v>
+        <v>0.00896548547546798</v>
       </c>
       <c r="T8">
-        <v>0.05601339388418676</v>
+        <v>0.008516778917238952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H9">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I9">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J9">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.743134322622252</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N9">
-        <v>0.743134322622252</v>
+        <v>72.555193</v>
       </c>
       <c r="O9">
-        <v>0.01275972505225066</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P9">
-        <v>0.01275972505225066</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q9">
-        <v>1.402879370343879</v>
+        <v>50.49130391908601</v>
       </c>
       <c r="R9">
-        <v>1.402879370343879</v>
+        <v>454.421735271774</v>
       </c>
       <c r="S9">
-        <v>0.001816879665428138</v>
+        <v>0.04990980293582548</v>
       </c>
       <c r="T9">
-        <v>0.001816879665428138</v>
+        <v>0.07111785946848595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H10">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I10">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J10">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.30518011884588</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N10">
-        <v>4.30518011884588</v>
+        <v>0.430342</v>
       </c>
       <c r="O10">
-        <v>0.07392057255954868</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P10">
-        <v>0.07392057255954868</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q10">
-        <v>8.127263390327286</v>
+        <v>0.299475858484</v>
       </c>
       <c r="R10">
-        <v>8.127263390327286</v>
+        <v>2.695282726356</v>
       </c>
       <c r="S10">
-        <v>0.01052568018435158</v>
+        <v>0.0002960268386993196</v>
       </c>
       <c r="T10">
-        <v>0.01052568018435158</v>
+        <v>0.0004218168350732274</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H11">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I11">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J11">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.9376137592956</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N11">
-        <v>25.9376137592956</v>
+        <v>3.215092</v>
       </c>
       <c r="O11">
-        <v>0.4453526233484394</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P11">
-        <v>0.4453526233484394</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q11">
-        <v>48.96469204983776</v>
+        <v>2.237388952984001</v>
       </c>
       <c r="R11">
-        <v>48.96469204983776</v>
+        <v>20.136500576856</v>
       </c>
       <c r="S11">
-        <v>0.06341454239753636</v>
+        <v>0.002211621270727638</v>
       </c>
       <c r="T11">
-        <v>0.06341454239753636</v>
+        <v>0.003151400355785056</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.7871415384493</v>
+        <v>2.087706</v>
       </c>
       <c r="H12">
-        <v>4.7871415384493</v>
+        <v>6.263118</v>
       </c>
       <c r="I12">
-        <v>0.3610838858924802</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J12">
-        <v>0.3610838858924802</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.3442741098935</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N12">
-        <v>4.3442741098935</v>
+        <v>14.125759</v>
       </c>
       <c r="O12">
-        <v>0.07459182210593297</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P12">
-        <v>0.07459182210593297</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q12">
-        <v>20.79665504588104</v>
+        <v>9.830143939618003</v>
       </c>
       <c r="R12">
-        <v>20.79665504588104</v>
+        <v>88.471295456562</v>
       </c>
       <c r="S12">
-        <v>0.02693390498181089</v>
+        <v>0.009716931605556658</v>
       </c>
       <c r="T12">
-        <v>0.02693390498181089</v>
+        <v>0.01384592476306556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.7871415384493</v>
+        <v>2.087706</v>
       </c>
       <c r="H13">
-        <v>4.7871415384493</v>
+        <v>6.263118</v>
       </c>
       <c r="I13">
-        <v>0.3610838858924802</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J13">
-        <v>0.3610838858924802</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.9104196133373</v>
+        <v>26.1699</v>
       </c>
       <c r="N13">
-        <v>22.9104196133373</v>
+        <v>52.3398</v>
       </c>
       <c r="O13">
-        <v>0.3933752569338282</v>
+        <v>0.4316816313205064</v>
       </c>
       <c r="P13">
-        <v>0.3933752569338282</v>
+        <v>0.3458079845003432</v>
       </c>
       <c r="Q13">
-        <v>109.6754213943105</v>
+        <v>54.63505724940001</v>
       </c>
       <c r="R13">
-        <v>109.6754213943105</v>
+        <v>327.8103434964</v>
       </c>
       <c r="S13">
-        <v>0.1420414663876195</v>
+        <v>0.05400583326338581</v>
       </c>
       <c r="T13">
-        <v>0.1420414663876195</v>
+        <v>0.05130293762720279</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H14">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I14">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J14">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.743134322622252</v>
+        <v>4.344454</v>
       </c>
       <c r="N14">
-        <v>0.743134322622252</v>
+        <v>8.688908</v>
       </c>
       <c r="O14">
-        <v>0.01275972505225066</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P14">
-        <v>0.01275972505225066</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q14">
-        <v>3.557489184472366</v>
+        <v>0.06231540002466666</v>
       </c>
       <c r="R14">
-        <v>3.557489184472366</v>
+        <v>0.373892400148</v>
       </c>
       <c r="S14">
-        <v>0.004607331104786298</v>
+        <v>6.159772265106015E-05</v>
       </c>
       <c r="T14">
-        <v>0.004607331104786298</v>
+        <v>5.851486649105276E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H15">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I15">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J15">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.30518011884588</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N15">
-        <v>4.30518011884588</v>
+        <v>72.555193</v>
       </c>
       <c r="O15">
-        <v>0.07392057255954868</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P15">
-        <v>0.07392057255954868</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q15">
-        <v>20.60950657743321</v>
+        <v>0.3469025011092222</v>
       </c>
       <c r="R15">
-        <v>20.60950657743321</v>
+        <v>3.122122509983</v>
       </c>
       <c r="S15">
-        <v>0.02669152758719888</v>
+        <v>0.0003429072755984329</v>
       </c>
       <c r="T15">
-        <v>0.02669152758719888</v>
+        <v>0.0004886180670376031</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H16">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I16">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J16">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>25.9376137592956</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N16">
-        <v>25.9376137592956</v>
+        <v>0.430342</v>
       </c>
       <c r="O16">
-        <v>0.4453526233484394</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P16">
-        <v>0.4453526233484394</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q16">
-        <v>124.1670282353781</v>
+        <v>0.002057560733555556</v>
       </c>
       <c r="R16">
-        <v>124.1670282353781</v>
+        <v>0.018518046602</v>
       </c>
       <c r="S16">
-        <v>0.1608096558310646</v>
+        <v>2.033864106675049E-06</v>
       </c>
       <c r="T16">
-        <v>0.1608096558310646</v>
+        <v>2.898109253256293E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>3.22510435732799</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H17">
-        <v>3.22510435732799</v>
+        <v>0.043031</v>
       </c>
       <c r="I17">
-        <v>0.2432627496804676</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J17">
-        <v>0.2432627496804676</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.3442741098935</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N17">
-        <v>4.3442741098935</v>
+        <v>3.215092</v>
       </c>
       <c r="O17">
-        <v>0.07459182210593297</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P17">
-        <v>0.07459182210593297</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q17">
-        <v>14.0107373612447</v>
+        <v>0.01537206931688889</v>
       </c>
       <c r="R17">
-        <v>14.0107373612447</v>
+        <v>0.138348623852</v>
       </c>
       <c r="S17">
-        <v>0.01814541174916555</v>
+        <v>1.519503143652746E-05</v>
       </c>
       <c r="T17">
-        <v>0.01814541174916555</v>
+        <v>2.165182081988344E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>3.22510435732799</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H18">
-        <v>3.22510435732799</v>
+        <v>0.043031</v>
       </c>
       <c r="I18">
-        <v>0.2432627496804676</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J18">
-        <v>0.2432627496804676</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.9104196133373</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N18">
-        <v>22.9104196133373</v>
+        <v>14.125759</v>
       </c>
       <c r="O18">
-        <v>0.3933752569338282</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P18">
-        <v>0.3933752569338282</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q18">
-        <v>73.88849412318676</v>
+        <v>0.06753839283655556</v>
       </c>
       <c r="R18">
-        <v>73.88849412318676</v>
+        <v>0.607845535529</v>
       </c>
       <c r="S18">
-        <v>0.09569354665798348</v>
+        <v>6.676056301648931E-05</v>
       </c>
       <c r="T18">
-        <v>0.09569354665798348</v>
+        <v>9.51289738560688E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>3.22510435732799</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H19">
-        <v>3.22510435732799</v>
+        <v>0.043031</v>
       </c>
       <c r="I19">
-        <v>0.2432627496804676</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J19">
-        <v>0.2432627496804676</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.743134322622252</v>
+        <v>26.1699</v>
       </c>
       <c r="N19">
-        <v>0.743134322622252</v>
+        <v>52.3398</v>
       </c>
       <c r="O19">
-        <v>0.01275972505225066</v>
+        <v>0.4316816313205064</v>
       </c>
       <c r="P19">
-        <v>0.01275972505225066</v>
+        <v>0.3458079845003432</v>
       </c>
       <c r="Q19">
-        <v>2.396685741969009</v>
+        <v>0.3753723222999999</v>
       </c>
       <c r="R19">
-        <v>2.396685741969009</v>
+        <v>2.2522339338</v>
       </c>
       <c r="S19">
-        <v>0.003103965801377243</v>
+        <v>0.0003710492140107778</v>
       </c>
       <c r="T19">
-        <v>0.003103965801377243</v>
+        <v>0.0003524788626106299</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H20">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I20">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J20">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.30518011884588</v>
+        <v>4.344454</v>
       </c>
       <c r="N20">
-        <v>4.30518011884588</v>
+        <v>8.688908</v>
       </c>
       <c r="O20">
-        <v>0.07392057255954868</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P20">
-        <v>0.07392057255954868</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q20">
-        <v>13.88465516037168</v>
+        <v>1.731192511433333</v>
       </c>
       <c r="R20">
-        <v>13.88465516037168</v>
+        <v>10.3871550686</v>
       </c>
       <c r="S20">
-        <v>0.01798212173879033</v>
+        <v>0.001711254619767374</v>
       </c>
       <c r="T20">
-        <v>0.01798212173879033</v>
+        <v>0.001625609378046734</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.19545</v>
+      </c>
+      <c r="I21">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J21">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.18506433333333</v>
+      </c>
+      <c r="N21">
+        <v>72.555193</v>
+      </c>
+      <c r="O21">
+        <v>0.3989410744788757</v>
+      </c>
+      <c r="P21">
+        <v>0.4793706711978917</v>
+      </c>
+      <c r="Q21">
+        <v>9.637345052427778</v>
+      </c>
+      <c r="R21">
+        <v>86.73610547185001</v>
+      </c>
+      <c r="S21">
+        <v>0.009526353155031178</v>
+      </c>
+      <c r="T21">
+        <v>0.01357436425460953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.19545</v>
+      </c>
+      <c r="I22">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J22">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1434473333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.430342</v>
+      </c>
+      <c r="O22">
+        <v>0.002366213812888463</v>
+      </c>
+      <c r="P22">
+        <v>0.002843260762667162</v>
+      </c>
+      <c r="Q22">
+        <v>0.05716137154444445</v>
+      </c>
+      <c r="R22">
+        <v>0.5144523439000001</v>
+      </c>
+      <c r="S22">
+        <v>5.650305236514811E-05</v>
+      </c>
+      <c r="T22">
+        <v>8.051276305001593E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H23">
+        <v>1.19545</v>
+      </c>
+      <c r="I23">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J23">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.071697333333334</v>
+      </c>
+      <c r="N23">
+        <v>3.215092</v>
+      </c>
+      <c r="O23">
+        <v>0.01767802143436429</v>
+      </c>
+      <c r="P23">
+        <v>0.0212420468649704</v>
+      </c>
+      <c r="Q23">
+        <v>0.4270535257111112</v>
+      </c>
+      <c r="R23">
+        <v>3.843481731400001</v>
+      </c>
+      <c r="S23">
+        <v>0.0004221352125397214</v>
+      </c>
+      <c r="T23">
+        <v>0.0006015121470365472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H24">
+        <v>1.19545</v>
+      </c>
+      <c r="I24">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J24">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.708586333333334</v>
+      </c>
+      <c r="N24">
+        <v>14.125759</v>
+      </c>
+      <c r="O24">
+        <v>0.07766977441972553</v>
+      </c>
+      <c r="P24">
+        <v>0.09332859982895587</v>
+      </c>
+      <c r="Q24">
+        <v>1.876293177394445</v>
+      </c>
+      <c r="R24">
+        <v>16.88663859655</v>
+      </c>
+      <c r="S24">
+        <v>0.001854684182521023</v>
+      </c>
+      <c r="T24">
+        <v>0.002642790820483778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.19545</v>
+      </c>
+      <c r="I25">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J25">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>26.1699</v>
+      </c>
+      <c r="N25">
+        <v>52.3398</v>
+      </c>
+      <c r="O25">
+        <v>0.4316816313205064</v>
+      </c>
+      <c r="P25">
+        <v>0.3458079845003432</v>
+      </c>
+      <c r="Q25">
+        <v>10.428268985</v>
+      </c>
+      <c r="R25">
+        <v>62.56961391</v>
+      </c>
+      <c r="S25">
+        <v>0.01030816813202538</v>
+      </c>
+      <c r="T25">
+        <v>0.009792262701491427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H26">
+        <v>19.023016</v>
+      </c>
+      <c r="I26">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J26">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.344454</v>
+      </c>
+      <c r="N26">
+        <v>8.688908</v>
+      </c>
+      <c r="O26">
+        <v>0.07166328453363975</v>
+      </c>
+      <c r="P26">
+        <v>0.05740743684517152</v>
+      </c>
+      <c r="Q26">
+        <v>27.54820598442133</v>
+      </c>
+      <c r="R26">
+        <v>165.289235906528</v>
+      </c>
+      <c r="S26">
+        <v>0.02723093731390578</v>
+      </c>
+      <c r="T26">
+        <v>0.02586807746734123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H27">
+        <v>19.023016</v>
+      </c>
+      <c r="I27">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J27">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>24.18506433333333</v>
+      </c>
+      <c r="N27">
+        <v>72.555193</v>
+      </c>
+      <c r="O27">
+        <v>0.3989410744788757</v>
+      </c>
+      <c r="P27">
+        <v>0.4793706711978917</v>
+      </c>
+      <c r="Q27">
+        <v>153.3576219246764</v>
+      </c>
+      <c r="R27">
+        <v>1380.218597322088</v>
+      </c>
+      <c r="S27">
+        <v>0.151591424559629</v>
+      </c>
+      <c r="T27">
+        <v>0.2160068161824126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H28">
+        <v>19.023016</v>
+      </c>
+      <c r="I28">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J28">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1434473333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.430342</v>
+      </c>
+      <c r="O28">
+        <v>0.002366213812888463</v>
+      </c>
+      <c r="P28">
+        <v>0.002843260762667162</v>
+      </c>
+      <c r="Q28">
+        <v>0.9096003057191111</v>
+      </c>
+      <c r="R28">
+        <v>8.186402751471999</v>
+      </c>
+      <c r="S28">
+        <v>0.0008991245716600861</v>
+      </c>
+      <c r="T28">
+        <v>0.001281187485636925</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="H21">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="I21">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="J21">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>25.9376137592956</v>
-      </c>
-      <c r="N21">
-        <v>25.9376137592956</v>
-      </c>
-      <c r="O21">
-        <v>0.4453526233484394</v>
-      </c>
-      <c r="P21">
-        <v>0.4453526233484394</v>
-      </c>
-      <c r="Q21">
-        <v>83.65151115379467</v>
-      </c>
-      <c r="R21">
-        <v>83.65151115379467</v>
-      </c>
-      <c r="S21">
-        <v>0.108337703733151</v>
-      </c>
-      <c r="T21">
-        <v>0.108337703733151</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H29">
+        <v>19.023016</v>
+      </c>
+      <c r="I29">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J29">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.071697333333334</v>
+      </c>
+      <c r="N29">
+        <v>3.215092</v>
+      </c>
+      <c r="O29">
+        <v>0.01767802143436429</v>
+      </c>
+      <c r="P29">
+        <v>0.0212420468649704</v>
+      </c>
+      <c r="Q29">
+        <v>6.795638506385778</v>
+      </c>
+      <c r="R29">
+        <v>61.160746557472</v>
+      </c>
+      <c r="S29">
+        <v>0.006717374128827235</v>
+      </c>
+      <c r="T29">
+        <v>0.009571772301033577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H30">
+        <v>19.023016</v>
+      </c>
+      <c r="I30">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J30">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4.708586333333334</v>
+      </c>
+      <c r="N30">
+        <v>14.125759</v>
+      </c>
+      <c r="O30">
+        <v>0.07766977441972553</v>
+      </c>
+      <c r="P30">
+        <v>0.09332859982895587</v>
+      </c>
+      <c r="Q30">
+        <v>29.85717105212711</v>
+      </c>
+      <c r="R30">
+        <v>268.714539469144</v>
+      </c>
+      <c r="S30">
+        <v>0.02951331036768107</v>
+      </c>
+      <c r="T30">
+        <v>0.0420543327305333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H31">
+        <v>19.023016</v>
+      </c>
+      <c r="I31">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J31">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>26.1699</v>
+      </c>
+      <c r="N31">
+        <v>52.3398</v>
+      </c>
+      <c r="O31">
+        <v>0.4316816313205064</v>
+      </c>
+      <c r="P31">
+        <v>0.3458079845003432</v>
+      </c>
+      <c r="Q31">
+        <v>165.9434754728</v>
+      </c>
+      <c r="R31">
+        <v>995.6608528367999</v>
+      </c>
+      <c r="S31">
+        <v>0.1640323286680404</v>
+      </c>
+      <c r="T31">
+        <v>0.1558228031675725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.3447175</v>
+      </c>
+      <c r="H32">
+        <v>6.689435</v>
+      </c>
+      <c r="I32">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J32">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.344454</v>
+      </c>
+      <c r="N32">
+        <v>8.688908</v>
+      </c>
+      <c r="O32">
+        <v>0.07166328453363975</v>
+      </c>
+      <c r="P32">
+        <v>0.05740743684517152</v>
+      </c>
+      <c r="Q32">
+        <v>14.530971321745</v>
+      </c>
+      <c r="R32">
+        <v>58.12388528697999</v>
+      </c>
+      <c r="S32">
+        <v>0.01436362024432251</v>
+      </c>
+      <c r="T32">
+        <v>0.009096497778940194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.3447175</v>
+      </c>
+      <c r="H33">
+        <v>6.689435</v>
+      </c>
+      <c r="I33">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J33">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>24.18506433333333</v>
+      </c>
+      <c r="N33">
+        <v>72.555193</v>
+      </c>
+      <c r="O33">
+        <v>0.3989410744788757</v>
+      </c>
+      <c r="P33">
+        <v>0.4793706711978917</v>
+      </c>
+      <c r="Q33">
+        <v>80.89220791432582</v>
+      </c>
+      <c r="R33">
+        <v>485.353247485955</v>
+      </c>
+      <c r="S33">
+        <v>0.07996058415361493</v>
+      </c>
+      <c r="T33">
+        <v>0.07595869952531172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.3447175</v>
+      </c>
+      <c r="H34">
+        <v>6.689435</v>
+      </c>
+      <c r="I34">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J34">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1434473333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.430342</v>
+      </c>
+      <c r="O34">
+        <v>0.002366213812888463</v>
+      </c>
+      <c r="P34">
+        <v>0.002843260762667162</v>
+      </c>
+      <c r="Q34">
+        <v>0.4797908061283334</v>
+      </c>
+      <c r="R34">
+        <v>2.87874483677</v>
+      </c>
+      <c r="S34">
+        <v>0.0004742651253899216</v>
+      </c>
+      <c r="T34">
+        <v>0.0004505290017093841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.3447175</v>
+      </c>
+      <c r="H35">
+        <v>6.689435</v>
+      </c>
+      <c r="I35">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J35">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.071697333333334</v>
+      </c>
+      <c r="N35">
+        <v>3.215092</v>
+      </c>
+      <c r="O35">
+        <v>0.01767802143436429</v>
+      </c>
+      <c r="P35">
+        <v>0.0212420468649704</v>
+      </c>
+      <c r="Q35">
+        <v>3.584524825503334</v>
+      </c>
+      <c r="R35">
+        <v>21.50714895302</v>
+      </c>
+      <c r="S35">
+        <v>0.003543242375878101</v>
+      </c>
+      <c r="T35">
+        <v>0.003365909414288699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.3447175</v>
+      </c>
+      <c r="H36">
+        <v>6.689435</v>
+      </c>
+      <c r="I36">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J36">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.708586333333334</v>
+      </c>
+      <c r="N36">
+        <v>14.125759</v>
+      </c>
+      <c r="O36">
+        <v>0.07766977441972553</v>
+      </c>
+      <c r="P36">
+        <v>0.09332859982895587</v>
+      </c>
+      <c r="Q36">
+        <v>15.74889110936083</v>
+      </c>
+      <c r="R36">
+        <v>94.493346656165</v>
+      </c>
+      <c r="S36">
+        <v>0.01556751342737361</v>
+      </c>
+      <c r="T36">
+        <v>0.01478838714477636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.3447175</v>
+      </c>
+      <c r="H37">
+        <v>6.689435</v>
+      </c>
+      <c r="I37">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J37">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>26.1699</v>
+      </c>
+      <c r="N37">
+        <v>52.3398</v>
+      </c>
+      <c r="O37">
+        <v>0.4316816313205064</v>
+      </c>
+      <c r="P37">
+        <v>0.3458079845003432</v>
+      </c>
+      <c r="Q37">
+        <v>87.53092250324998</v>
+      </c>
+      <c r="R37">
+        <v>350.1236900129999</v>
+      </c>
+      <c r="S37">
+        <v>0.08652284163485117</v>
+      </c>
+      <c r="T37">
+        <v>0.05479501848220443</v>
       </c>
     </row>
   </sheetData>
